--- a/엑셀/Weapone.xlsx
+++ b/엑셀/Weapone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="91">
   <si>
     <r>
       <t>N</t>
@@ -76,54 +76,338 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>무기이름0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword22_icon</t>
-  </si>
-  <si>
-    <t>무기이름02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ConbinationNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_short_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_03</t>
+  </si>
+  <si>
+    <t>sw_long_01</t>
+  </si>
+  <si>
+    <t>상어이빨 시미터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_short_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 수리검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청동검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_short_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧은 대검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_short_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 스피어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_arabia_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양햑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처형자검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_long_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_short_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은철단도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고목 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_arabia_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 곡도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_arabia_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_arabia_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명의 손톱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_04</t>
+  </si>
+  <si>
+    <t>sw_big_05</t>
+  </si>
+  <si>
+    <t>기가 대검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_long_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열선검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장 스태프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_arabia_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단의 보물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_long_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의 저주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>『풀』</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>『번개』</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠지도 모조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_long_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이단 심판자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_big_06</t>
+  </si>
+  <si>
+    <t>무기이름 08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단장의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성기사의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 드레인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>『불』</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,16 +728,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
@@ -481,15 +765,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -509,10 +793,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -532,10 +816,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -555,10 +839,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -578,10 +862,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -601,13 +885,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -624,13 +908,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -647,13 +931,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -670,13 +954,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -693,13 +977,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -716,13 +1000,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -739,13 +1023,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -762,13 +1046,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -785,13 +1069,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -808,13 +1092,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>13</v>
@@ -831,13 +1115,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -854,13 +1138,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -877,13 +1161,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -900,13 +1184,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -923,13 +1207,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -946,13 +1230,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -969,13 +1253,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -992,13 +1276,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1015,13 +1299,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>11</v>
@@ -1038,13 +1322,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>13</v>
@@ -1061,13 +1345,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1084,13 +1368,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -1107,13 +1391,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1130,13 +1414,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -1153,13 +1437,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>13</v>
@@ -1176,13 +1460,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -1199,13 +1483,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -1222,13 +1506,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -1245,13 +1529,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>11</v>
@@ -1268,13 +1552,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>13</v>
@@ -1291,13 +1575,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1314,13 +1598,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1337,13 +1621,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1360,13 +1644,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>11</v>
@@ -1383,13 +1667,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>13</v>
@@ -1401,6 +1685,3686 @@
         <v>50</v>
       </c>
       <c r="G41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>40</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>40</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>40</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>40</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>50</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>40</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>40</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <v>30</v>
+      </c>
+      <c r="G84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <v>40</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+      <c r="F90">
+        <v>40</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
+      </c>
+      <c r="F95">
+        <v>40</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>50</v>
+      </c>
+      <c r="F96">
+        <v>50</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
+      </c>
+      <c r="F100">
+        <v>40</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>13</v>
+      </c>
+      <c r="E101">
+        <v>50</v>
+      </c>
+      <c r="F101">
+        <v>50</v>
+      </c>
+      <c r="G101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
+      </c>
+      <c r="F105">
+        <v>40</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106">
+        <v>50</v>
+      </c>
+      <c r="F106">
+        <v>50</v>
+      </c>
+      <c r="G106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <v>30</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>40</v>
+      </c>
+      <c r="F110">
+        <v>40</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>50</v>
+      </c>
+      <c r="F111">
+        <v>50</v>
+      </c>
+      <c r="G111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>30</v>
+      </c>
+      <c r="F114">
+        <v>30</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
+      </c>
+      <c r="F115">
+        <v>40</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>50</v>
+      </c>
+      <c r="F116">
+        <v>50</v>
+      </c>
+      <c r="G116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <v>30</v>
+      </c>
+      <c r="G119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+      <c r="F120">
+        <v>40</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>50</v>
+      </c>
+      <c r="F121">
+        <v>50</v>
+      </c>
+      <c r="G121">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>30</v>
+      </c>
+      <c r="F124">
+        <v>30</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
+      <c r="F125">
+        <v>40</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>13</v>
+      </c>
+      <c r="E126">
+        <v>50</v>
+      </c>
+      <c r="F126">
+        <v>50</v>
+      </c>
+      <c r="G126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>20</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>30</v>
+      </c>
+      <c r="F129">
+        <v>30</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>11</v>
+      </c>
+      <c r="E130">
+        <v>40</v>
+      </c>
+      <c r="F130">
+        <v>40</v>
+      </c>
+      <c r="G130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>13</v>
+      </c>
+      <c r="E131">
+        <v>50</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+      <c r="G131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>20</v>
+      </c>
+      <c r="F133">
+        <v>20</v>
+      </c>
+      <c r="G133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>30</v>
+      </c>
+      <c r="F134">
+        <v>30</v>
+      </c>
+      <c r="G134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>40</v>
+      </c>
+      <c r="F135">
+        <v>40</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>50</v>
+      </c>
+      <c r="F136">
+        <v>50</v>
+      </c>
+      <c r="G136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>20</v>
+      </c>
+      <c r="F138">
+        <v>20</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>30</v>
+      </c>
+      <c r="F139">
+        <v>30</v>
+      </c>
+      <c r="G139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>11</v>
+      </c>
+      <c r="E140">
+        <v>40</v>
+      </c>
+      <c r="F140">
+        <v>40</v>
+      </c>
+      <c r="G140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>13</v>
+      </c>
+      <c r="E141">
+        <v>50</v>
+      </c>
+      <c r="F141">
+        <v>50</v>
+      </c>
+      <c r="G141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>7</v>
+      </c>
+      <c r="E143">
+        <v>20</v>
+      </c>
+      <c r="F143">
+        <v>20</v>
+      </c>
+      <c r="G143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>30</v>
+      </c>
+      <c r="F144">
+        <v>30</v>
+      </c>
+      <c r="G144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>11</v>
+      </c>
+      <c r="E145">
+        <v>40</v>
+      </c>
+      <c r="F145">
+        <v>40</v>
+      </c>
+      <c r="G145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>13</v>
+      </c>
+      <c r="E146">
+        <v>50</v>
+      </c>
+      <c r="F146">
+        <v>50</v>
+      </c>
+      <c r="G146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <v>20</v>
+      </c>
+      <c r="G148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
+      </c>
+      <c r="G149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+      <c r="E150">
+        <v>40</v>
+      </c>
+      <c r="F150">
+        <v>40</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <v>50</v>
+      </c>
+      <c r="F151">
+        <v>50</v>
+      </c>
+      <c r="G151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>30</v>
+      </c>
+      <c r="F154">
+        <v>30</v>
+      </c>
+      <c r="G154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>11</v>
+      </c>
+      <c r="E155">
+        <v>40</v>
+      </c>
+      <c r="F155">
+        <v>40</v>
+      </c>
+      <c r="G155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>13</v>
+      </c>
+      <c r="E156">
+        <v>50</v>
+      </c>
+      <c r="F156">
+        <v>50</v>
+      </c>
+      <c r="G156">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>30</v>
+      </c>
+      <c r="F159">
+        <v>30</v>
+      </c>
+      <c r="G159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+      <c r="E160">
+        <v>40</v>
+      </c>
+      <c r="F160">
+        <v>40</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161">
+        <v>50</v>
+      </c>
+      <c r="F161">
+        <v>50</v>
+      </c>
+      <c r="G161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>20</v>
+      </c>
+      <c r="F163">
+        <v>20</v>
+      </c>
+      <c r="G163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>30</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
+      </c>
+      <c r="G164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>40</v>
+      </c>
+      <c r="F165">
+        <v>40</v>
+      </c>
+      <c r="G165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>13</v>
+      </c>
+      <c r="E166">
+        <v>50</v>
+      </c>
+      <c r="F166">
+        <v>50</v>
+      </c>
+      <c r="G166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+      <c r="E168">
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <v>20</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>30</v>
+      </c>
+      <c r="F169">
+        <v>30</v>
+      </c>
+      <c r="G169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>11</v>
+      </c>
+      <c r="E170">
+        <v>40</v>
+      </c>
+      <c r="F170">
+        <v>40</v>
+      </c>
+      <c r="G170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>13</v>
+      </c>
+      <c r="E171">
+        <v>50</v>
+      </c>
+      <c r="F171">
+        <v>50</v>
+      </c>
+      <c r="G171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173">
+        <v>20</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>30</v>
+      </c>
+      <c r="F174">
+        <v>30</v>
+      </c>
+      <c r="G174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>11</v>
+      </c>
+      <c r="E175">
+        <v>40</v>
+      </c>
+      <c r="F175">
+        <v>40</v>
+      </c>
+      <c r="G175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>13</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="F176">
+        <v>50</v>
+      </c>
+      <c r="G176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>10</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>20</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>9</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>11</v>
+      </c>
+      <c r="E180">
+        <v>40</v>
+      </c>
+      <c r="F180">
+        <v>40</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>13</v>
+      </c>
+      <c r="E181">
+        <v>50</v>
+      </c>
+      <c r="F181">
+        <v>50</v>
+      </c>
+      <c r="G181">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183">
+        <v>20</v>
+      </c>
+      <c r="F183">
+        <v>20</v>
+      </c>
+      <c r="G183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>30</v>
+      </c>
+      <c r="F184">
+        <v>30</v>
+      </c>
+      <c r="G184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>11</v>
+      </c>
+      <c r="E185">
+        <v>40</v>
+      </c>
+      <c r="F185">
+        <v>40</v>
+      </c>
+      <c r="G185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>13</v>
+      </c>
+      <c r="E186">
+        <v>50</v>
+      </c>
+      <c r="F186">
+        <v>50</v>
+      </c>
+      <c r="G186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>20</v>
+      </c>
+      <c r="F188">
+        <v>20</v>
+      </c>
+      <c r="G188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>30</v>
+      </c>
+      <c r="F189">
+        <v>30</v>
+      </c>
+      <c r="G189">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>11</v>
+      </c>
+      <c r="E190">
+        <v>40</v>
+      </c>
+      <c r="F190">
+        <v>40</v>
+      </c>
+      <c r="G190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>13</v>
+      </c>
+      <c r="E191">
+        <v>50</v>
+      </c>
+      <c r="F191">
+        <v>50</v>
+      </c>
+      <c r="G191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>10</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <v>30</v>
+      </c>
+      <c r="F194">
+        <v>30</v>
+      </c>
+      <c r="G194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>11</v>
+      </c>
+      <c r="E195">
+        <v>40</v>
+      </c>
+      <c r="F195">
+        <v>40</v>
+      </c>
+      <c r="G195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>13</v>
+      </c>
+      <c r="E196">
+        <v>50</v>
+      </c>
+      <c r="F196">
+        <v>50</v>
+      </c>
+      <c r="G196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <v>10</v>
+      </c>
+      <c r="F197">
+        <v>10</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>20</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="E199">
+        <v>30</v>
+      </c>
+      <c r="F199">
+        <v>30</v>
+      </c>
+      <c r="G199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200">
+        <v>11</v>
+      </c>
+      <c r="E200">
+        <v>40</v>
+      </c>
+      <c r="F200">
+        <v>40</v>
+      </c>
+      <c r="G200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>13</v>
+      </c>
+      <c r="E201">
+        <v>50</v>
+      </c>
+      <c r="F201">
+        <v>50</v>
+      </c>
+      <c r="G201">
         <v>15</v>
       </c>
     </row>

--- a/엑셀/Weapone.xlsx
+++ b/엑셀/Weapone.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="88">
   <si>
     <r>
       <t>N</t>
@@ -190,97 +190,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>기가 대검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_long_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열선검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>족장 스태프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_arabia_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단의 보물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_gold_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_long_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의 저주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>sw_big_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sw_big_05</t>
-  </si>
-  <si>
-    <t>기가 대검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_long_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열선검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_wand_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>족장 스태프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_arabia_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적단의 보물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_element_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_gold_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_gold_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_gold_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_long_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_wand_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>피의 저주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_big_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_big_05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -336,78 +330,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>무기이름 08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기이름 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사단장의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_elegance_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성기사의 검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 드레인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_element_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>『불』</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw_wand_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>sw_big_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_big_06</t>
-  </si>
-  <si>
-    <t>무기이름 08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_elegance_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_elegance_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_elegance_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기이름 11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_elegance_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기사단장의 검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_elegance_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성기사의 검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_element_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지 드레인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_element_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>『불』</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw_wand_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>절대자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +721,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="L159" sqref="L159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2256,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>34</v>
@@ -2288,7 +2279,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>34</v>
@@ -2311,7 +2302,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>34</v>
@@ -2334,7 +2325,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>34</v>
@@ -2357,7 +2348,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>34</v>
@@ -2380,10 +2371,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -2403,10 +2394,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -2426,10 +2417,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -2449,10 +2440,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -2472,10 +2463,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2495,10 +2486,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -2518,10 +2509,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -2541,10 +2532,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -2564,10 +2555,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2587,10 +2578,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2610,10 +2601,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -2633,10 +2624,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -2656,10 +2647,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -2679,10 +2670,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -2702,10 +2693,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2725,10 +2716,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -2748,10 +2739,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2771,10 +2762,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -2794,10 +2785,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2817,10 +2808,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2840,10 +2831,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -2863,10 +2854,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -2886,10 +2877,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2909,10 +2900,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2932,10 +2923,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2955,10 +2946,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2978,10 +2969,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -3001,10 +2992,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -3024,10 +3015,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -3047,10 +3038,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -3070,10 +3061,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -3093,10 +3084,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -3116,10 +3107,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -3139,10 +3130,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -3162,10 +3153,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -3185,10 +3176,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -3208,10 +3199,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -3231,10 +3222,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -3254,10 +3245,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -3277,10 +3268,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -3300,10 +3291,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -3323,10 +3314,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -3346,10 +3337,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -3369,10 +3360,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -3392,10 +3383,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -3415,10 +3406,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -3438,10 +3429,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -3461,10 +3452,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -3484,10 +3475,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -3507,10 +3498,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -3530,10 +3521,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -3553,10 +3544,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -3576,10 +3567,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -3599,10 +3590,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -3622,10 +3613,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -3645,10 +3636,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -3668,10 +3659,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -3691,10 +3682,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -3714,10 +3705,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -3737,10 +3728,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -3760,10 +3751,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -3783,10 +3774,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -3806,10 +3797,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -3829,10 +3820,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -3852,10 +3843,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -3875,10 +3866,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -3898,10 +3889,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C138">
         <v>5</v>
@@ -3921,10 +3912,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C139">
         <v>5</v>
@@ -3944,10 +3935,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C140">
         <v>5</v>
@@ -3967,10 +3958,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -3990,10 +3981,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -4013,10 +4004,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -4036,10 +4027,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -4059,10 +4050,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -4082,10 +4073,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -4105,10 +4096,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -4128,10 +4119,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -4151,10 +4142,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C149">
         <v>5</v>
@@ -4174,10 +4165,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C150">
         <v>5</v>
@@ -4197,10 +4188,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -4220,10 +4211,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -4243,10 +4234,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C153">
         <v>5</v>
@@ -4266,10 +4257,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C154">
         <v>5</v>
@@ -4289,10 +4280,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -4312,10 +4303,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -4335,10 +4326,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -4358,10 +4349,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -4381,10 +4372,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -4404,10 +4395,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C160">
         <v>6</v>
@@ -4427,10 +4418,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -4450,10 +4441,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -4473,10 +4464,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C163">
         <v>6</v>
@@ -4496,10 +4487,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C164">
         <v>6</v>
@@ -4519,10 +4510,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C165">
         <v>6</v>
@@ -4542,10 +4533,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C166">
         <v>6</v>
@@ -4565,10 +4556,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C167">
         <v>6</v>
@@ -4588,10 +4579,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -4611,10 +4602,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -4634,10 +4625,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -4657,10 +4648,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C171">
         <v>6</v>
@@ -4680,10 +4671,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C172">
         <v>6</v>
@@ -4703,10 +4694,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C173">
         <v>6</v>
@@ -4726,10 +4717,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C174">
         <v>6</v>
@@ -4749,10 +4740,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C175">
         <v>6</v>
@@ -4772,10 +4763,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C176">
         <v>6</v>
@@ -4795,10 +4786,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C177">
         <v>6</v>
@@ -4818,10 +4809,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C178">
         <v>6</v>
@@ -4841,10 +4832,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C179">
         <v>6</v>
@@ -4864,10 +4855,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C180">
         <v>6</v>
@@ -4887,10 +4878,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C181">
         <v>6</v>
@@ -4910,10 +4901,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C182">
         <v>6</v>
@@ -4933,10 +4924,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C183">
         <v>6</v>
@@ -4956,10 +4947,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C184">
         <v>6</v>
@@ -4979,10 +4970,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C185">
         <v>6</v>
@@ -5002,10 +4993,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C186">
         <v>6</v>
@@ -5025,10 +5016,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C187">
         <v>6</v>
@@ -5048,10 +5039,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C188">
         <v>6</v>
@@ -5071,10 +5062,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C189">
         <v>6</v>
@@ -5094,10 +5085,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C190">
         <v>6</v>
@@ -5117,10 +5108,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C191">
         <v>6</v>
@@ -5140,10 +5131,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C192">
         <v>6</v>
@@ -5163,10 +5154,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C193">
         <v>6</v>
@@ -5186,10 +5177,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C194">
         <v>6</v>
@@ -5209,10 +5200,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C195">
         <v>6</v>
@@ -5232,10 +5223,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C196">
         <v>6</v>
@@ -5255,10 +5246,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C197">
         <v>6</v>
@@ -5278,10 +5269,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C198">
         <v>6</v>
@@ -5301,10 +5292,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C199">
         <v>6</v>
@@ -5324,10 +5315,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C200">
         <v>6</v>
@@ -5347,10 +5338,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C201">
         <v>6</v>
